--- a/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example_batch.xlsx
+++ b/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example_batch.xlsx
@@ -1226,7 +1226,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1238,7 +1238,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="2" spans="1:16" ht="30">
       <c r="A2" s="22">
-        <v>42432</v>
+        <v>42061</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>44</v>
@@ -1340,9 +1340,6 @@
       </c>
       <c r="J2" s="23">
         <v>456.67</v>
-      </c>
-      <c r="K2" s="23">
-        <v>0</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>50</v>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="3" spans="1:16" ht="30">
       <c r="A3" s="22">
-        <v>42432</v>
+        <v>42061</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>53</v>
@@ -1368,7 +1365,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>46</v>
@@ -1377,7 +1374,7 @@
         <v>457.67</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>46</v>

--- a/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example_batch.xlsx
+++ b/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example_batch.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Projects\BarsGL_Online\barsgl\barsgl-ejbparent\barsgl-ejbtest\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10545"/>
   </bookViews>
@@ -272,11 +277,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1049,7 +1054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1226,7 +1231,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1238,10 +1243,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="22" customWidth="1"/>
     <col min="2" max="4" width="15.28515625" style="16" customWidth="1"/>
@@ -1260,7 +1265,7 @@
     <col min="17" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -1310,9 +1315,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
-        <v>42061</v>
+        <v>43300</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>44</v>
@@ -1351,9 +1356,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
-        <v>42061</v>
+        <v>43300</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>53</v>
@@ -1371,7 +1376,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="23">
-        <v>457.67</v>
+        <v>1457.67</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>48</v>
@@ -1380,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="J3" s="23">
-        <v>457.67</v>
+        <v>1457.67</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>60</v>
@@ -1413,7 +1418,7 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
     <col min="2" max="4" width="15.28515625" style="3" customWidth="1"/>
@@ -1432,7 +1437,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="22.5">
+    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="48" customHeight="1">
+    <row r="5" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
